--- a/repoplaceholder.xlsx
+++ b/repoplaceholder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyle\Bootcamp\bootcamp1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F472153E-6022-40F7-AD50-B42E7BE4A5D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE20C5F6-366A-4A39-AFA0-B2C4946B14C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="2925" windowWidth="21600" windowHeight="11385" xr2:uid="{A6D876CA-8BA9-4097-854F-22070B66F50A}"/>
+    <workbookView xWindow="3540" yWindow="2100" windowWidth="21600" windowHeight="11385" xr2:uid="{A6D876CA-8BA9-4097-854F-22070B66F50A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -384,13 +384,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC6D318-87C6-499B-9A9C-95A531DDE3C1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -399,12 +401,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -522,15 +521,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7544FE9-62EF-46F2-A482-B11150AD4D06}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6F7E88A-B60C-42A9-8B98-F18B03A52C1A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -552,16 +561,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6F7E88A-B60C-42A9-8B98-F18B03A52C1A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7544FE9-62EF-46F2-A482-B11150AD4D06}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>